--- a/로스트아크/데이터테이블/1차완성/SkillEffect_Table.xlsx
+++ b/로스트아크/데이터테이블/1차완성/SkillEffect_Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\1차완성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52370035-2A94-4C49-8C0E-818B4FAEE008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953732B9-FCE2-4A1B-840F-24187E1CF298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="587" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -757,9 +757,387 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">효과 적용 영역 유형
-</t>
+    <t>자신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적중된 대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적중된 대상에게 효과 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기 자신에게 효과 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기에 연결된 충돌 박스에 충돌하면 효과 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>중심선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(빨간 점선)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>과 중심점-대상을 이은 직선 사이의 각도가 중심각의 절반보다 
+작을 때 효과 적용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>로컬 좌표를 기준으로 대상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(점)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>과 네 꼭짓점의 좌표를 비교하여 대상이 
+사각형 내부에 있을 때 효과 적용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TARGET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECTANGLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigger_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit_index_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit_index_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk_index_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk_index_2</t>
+  </si>
+  <si>
+    <t>atk_index_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk_index_3</t>
+  </si>
+  <si>
+    <t>atk_index_4</t>
+  </si>
+  <si>
+    <t>hit_index_1_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit_index_16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit_index_3_15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHILE_SKILL_CAST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획용 스킬 명 &amp; 효과 (실제 데이터에는 적용 X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이연격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맹룡난무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡필살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절룡세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굉열파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유성강천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연가창식: 은하비섬창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연가창식: 마룡합일격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연가비기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연가심공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경직 면역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌우 베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전 후 베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk_index_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit_index_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콤보 내려 치기 (dmg_3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창 내려찍기 (dmg_1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창 낙하 (dmg_1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 (dmg_1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼펙트 존 공격 (dmg_2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 공격 (dmg_1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오버차지 공격 (dmg_2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 충돌 (dmg_1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기 발사[1~3] (dmg_2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기 발사[4] (dmg_3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굉열파 [공파섬]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡진 [내려치는 창]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이연격 [속성 강타]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적룡포 [진화하는 창술]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙하 (dmg_1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 어깨 치기 (dmg_1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit_index_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호막</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반격 (dmg_1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘두르기 [1] (dmg_1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘두르기 [2] (dmg_2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발 [1~2] (dmg_2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발 [3~4] (dmg_3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발 [5~6] (dmg_4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌르고 당기기 (dmg_1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘두르기 [1~5] (dmg_2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌르기 [1~8] (dmg_3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마무리 돌진 (dmg_4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강하게 휘두르기 (dmg_3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit_index_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진 (dmg_1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창 휘두르기 [1~4] (dmg_1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창 휘두르기 [5] (dmg_2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit_index_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진 휘두르기 (dmg_1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진 찌르기 [1~10] (dmg_3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 주는 피해 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>효과 적용 영역 유형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1046,42 +1424,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적중된 대상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적중된 대상에게 효과 적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자기 자신에게 효과 적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기에 연결된 충돌 박스에 충돌하면 효과 적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>중심선</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(빨간 점선)</t>
-    </r>
-    <r>
-      <rPr>
+    <r>
+      <rPr>
+        <b/>
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
@@ -1089,25 +1434,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>과 중심점-대상을 이은 직선 사이의 각도가 중심각의 절반보다 
-작을 때 효과 적용</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>로컬 좌표를 기준으로 대상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(점)</t>
+      <t>트리거 세부 필터</t>
     </r>
     <r>
       <rPr>
@@ -1118,76 +1445,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>과 네 꼭짓점의 좌표를 비교하여 대상이 
-사각형 내부에 있을 때 효과 적용</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TARGET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RECTANGLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trigger_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hit_index_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hit_index_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk_index_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk_index_2</t>
-  </si>
-  <si>
-    <t>atk_index_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk_index_3</t>
-  </si>
-  <si>
-    <t>atk_index_4</t>
-  </si>
-  <si>
-    <t>hit_index_1_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hit_index_16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hit_index_3_15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHILE_SKILL_CAST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">효과 발동 트리거 (효과 발동 조건)
-</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1199,7 +1457,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ON_HIT</t>
+      <t>hit_index_n</t>
     </r>
     <r>
       <rPr>
@@ -1210,7 +1468,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 적중 시</t>
+      <t>: n번째 타격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1221,7 +1490,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> / </t>
+      <t xml:space="preserve">/ </t>
     </r>
     <r>
       <rPr>
@@ -1233,7 +1502,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ON_SKILL_CAST</t>
+      <t>targer_grade_upper_""</t>
     </r>
     <r>
       <rPr>
@@ -1244,7 +1513,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 스킬 시전 시</t>
+      <t xml:space="preserve">: ""등급 이상의 적 </t>
     </r>
     <r>
       <rPr>
@@ -1255,7 +1524,57 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> / </t>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>효과 발동 트리거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (효과 발동 조건)
+</t>
     </r>
     <r>
       <rPr>
@@ -1267,7 +1586,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>WHILE_SKILL_CAST</t>
+      <t>ON_HIT</t>
     </r>
     <r>
       <rPr>
@@ -1278,18 +1597,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 스킬 시전 중</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>: 적중 시</t>
     </r>
     <r>
       <rPr>
@@ -1300,8 +1608,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">/
-</t>
+      <t xml:space="preserve"> / </t>
     </r>
     <r>
       <rPr>
@@ -1313,7 +1620,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ON_AREA_ENTER</t>
+      <t>ON_SKILL_CAST</t>
     </r>
     <r>
       <rPr>
@@ -1324,7 +1631,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 효과 적용 영역에 진입 시</t>
+      <t>: 스킬 시전 시</t>
     </r>
     <r>
       <rPr>
@@ -1347,6 +1654,86 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
+      <t>WHILE_SKILL_CAST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 스킬 시전 중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ON_AREA_ENTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 효과 적용 영역에 진입 시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>WHILE_IN_AREA</t>
     </r>
     <r>
@@ -1383,335 +1770,6 @@
       </rPr>
       <t>…</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">트리거 세부 필터
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hit_index_n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: n번째 타격</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>targer_grade_upper_""</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: ""등급 이상의 적 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획용 스킬 명 &amp; 효과 (실제 데이터에는 적용 X)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이연격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맹룡난무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적룡필살</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>절룡세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>굉열파</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유성강천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연가창식: 은하비섬창</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연가창식: 마룡합일격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연가비기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연가심공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경직 면역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좌우 베기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회전 후 베기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>찌르기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk_index_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hit_index_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콤보 내려 치기 (dmg_3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창 내려찍기 (dmg_1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창 낙하 (dmg_1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 (dmg_1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퍼펙트 존 공격 (dmg_2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 공격 (dmg_1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오버차지 공격 (dmg_2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체 충돌 (dmg_1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기 발사[1~3] (dmg_2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기 발사[4] (dmg_3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>굉열파 [공파섬]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청룡진 [내려치는 창]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이연격 [속성 강타]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적룡포 [진화하는 창술]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낙하 (dmg_1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근접 어깨 치기 (dmg_1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hit_index_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보호막</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반격 (dmg_1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휘두르기 [1] (dmg_1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휘두르기 [2] (dmg_2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭발 [1~2] (dmg_2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭발 [3~4] (dmg_3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭발 [5~6] (dmg_4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>찌르고 당기기 (dmg_1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휘두르기 [1~5] (dmg_2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>찌르기 [1~8] (dmg_3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마무리 돌진 (dmg_4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강하게 휘두르기 (dmg_3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hit_index_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌진 (dmg_1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창 휘두르기 [1~4] (dmg_1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창 휘두르기 [5] (dmg_2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hit_index_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌진 휘두르기 (dmg_1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌진 찌르기 [1~10] (dmg_3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적에게 주는 피해 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2880,6 +2938,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="15" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="10" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="15" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2896,18 +2966,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="15" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="10" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3389,7 +3447,7 @@
   <dimension ref="B1:F67"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C2" sqref="C2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -3399,7 +3457,7 @@
     <col min="3" max="3" width="4.19921875" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.8984375" style="11" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="62.5" style="24" customWidth="1"/>
+    <col min="6" max="6" width="71.69921875" style="24" customWidth="1"/>
     <col min="7" max="16384" width="8.69921875" style="10"/>
   </cols>
   <sheetData>
@@ -3433,13 +3491,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
@@ -3508,25 +3566,25 @@
         <v>31</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="26.4" x14ac:dyDescent="0.4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C9" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="40" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="26.4" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C10" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3538,7 +3596,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
@@ -3594,13 +3652,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -3608,13 +3666,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="46" t="s">
         <v>63</v>
-      </c>
-      <c r="E18" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -3628,7 +3686,7 @@
         <v>21</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
@@ -3699,10 +3757,10 @@
         <v>28</v>
       </c>
       <c r="E27" s="66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F27" s="50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.4">
@@ -3747,10 +3805,10 @@
         <v>29</v>
       </c>
       <c r="E33" s="65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F33" s="50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.4">
@@ -3927,10 +3985,10 @@
   <sheetData>
     <row r="1" spans="1:22" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="55" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>8</v>
@@ -3945,7 +4003,7 @@
         <v>19</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H1" s="21" t="s">
         <v>20</v>
@@ -3970,11 +4028,11 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="93" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C2" s="14">
         <v>3050000</v>
@@ -3989,7 +4047,7 @@
         <v>33</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H2" s="14">
         <v>2</v>
@@ -4014,9 +4072,9 @@
       <c r="V2" s="11"/>
     </row>
     <row r="3" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="99"/>
+      <c r="A3" s="93"/>
       <c r="B3" s="76" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C3" s="14">
         <v>3050001</v>
@@ -4031,7 +4089,7 @@
         <v>33</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3" s="14">
         <v>2</v>
@@ -4060,7 +4118,7 @@
         <v>38</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C4" s="14">
         <v>3050010</v>
@@ -4075,7 +4133,7 @@
         <v>33</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" s="14">
         <v>2</v>
@@ -4100,11 +4158,11 @@
       <c r="V4" s="11"/>
     </row>
     <row r="5" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="100" t="s">
-        <v>89</v>
+      <c r="A5" s="94" t="s">
+        <v>86</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14">
         <v>3050500</v>
@@ -4119,7 +4177,7 @@
         <v>33</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H5" s="14">
         <v>2</v>
@@ -4144,9 +4202,9 @@
       <c r="V5" s="11"/>
     </row>
     <row r="6" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="101"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="76" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C6" s="14">
         <v>3050501</v>
@@ -4161,7 +4219,7 @@
         <v>33</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" s="14">
         <v>2</v>
@@ -4186,11 +4244,11 @@
       <c r="V6" s="11"/>
     </row>
     <row r="7" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="100" t="s">
-        <v>117</v>
+      <c r="A7" s="94" t="s">
+        <v>114</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C7" s="14">
         <v>3050510</v>
@@ -4205,7 +4263,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" s="14">
         <v>2</v>
@@ -4230,9 +4288,9 @@
       <c r="V7" s="11"/>
     </row>
     <row r="8" spans="1:22" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="102"/>
+      <c r="A8" s="96"/>
       <c r="B8" s="76" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C8" s="14">
         <v>3050511</v>
@@ -4247,7 +4305,7 @@
         <v>33</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H8" s="14">
         <v>2</v>
@@ -4272,9 +4330,9 @@
       <c r="V8" s="11"/>
     </row>
     <row r="9" spans="1:22" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="101"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="76" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C9" s="14">
         <v>3050512</v>
@@ -4289,7 +4347,7 @@
         <v>33</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H9" s="14">
         <v>2</v>
@@ -4358,7 +4416,7 @@
       <c r="V10" s="71"/>
     </row>
     <row r="11" spans="1:22" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="93" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="76" t="s">
@@ -4402,9 +4460,9 @@
       <c r="V11" s="11"/>
     </row>
     <row r="12" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="99"/>
+      <c r="A12" s="93"/>
       <c r="B12" s="76" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C12" s="14">
         <v>3051801</v>
@@ -4419,7 +4477,7 @@
         <v>33</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H12" s="14">
         <v>4</v>
@@ -4444,8 +4502,8 @@
       <c r="V12" s="11"/>
     </row>
     <row r="13" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="99" t="s">
-        <v>116</v>
+      <c r="A13" s="93" t="s">
+        <v>113</v>
       </c>
       <c r="B13" s="76" t="s">
         <v>48</v>
@@ -4488,9 +4546,9 @@
       <c r="V13" s="11"/>
     </row>
     <row r="14" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="99"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="76" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C14" s="14">
         <v>3051811</v>
@@ -4505,7 +4563,7 @@
         <v>33</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H14" s="14">
         <v>4</v>
@@ -4574,11 +4632,11 @@
       <c r="V15" s="71"/>
     </row>
     <row r="16" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="99" t="s">
-        <v>93</v>
+      <c r="A16" s="93" t="s">
+        <v>90</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C16" s="14">
         <v>3052200</v>
@@ -4590,7 +4648,7 @@
         <v>3000</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>0</v>
@@ -4618,9 +4676,9 @@
       <c r="V16" s="11"/>
     </row>
     <row r="17" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="99"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="76" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C17" s="14">
         <v>3052201</v>
@@ -4635,7 +4693,7 @@
         <v>33</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H17" s="14">
         <v>2</v>
@@ -4660,9 +4718,9 @@
       <c r="V17" s="11"/>
     </row>
     <row r="18" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="99"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="76" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C18" s="14">
         <v>3052202</v>
@@ -4677,7 +4735,7 @@
         <v>33</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18" s="14">
         <v>6</v>
@@ -4702,9 +4760,9 @@
       <c r="V18" s="11"/>
     </row>
     <row r="19" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="99"/>
+      <c r="A19" s="93"/>
       <c r="B19" s="76" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C19" s="14">
         <v>3052203</v>
@@ -4719,7 +4777,7 @@
         <v>33</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H19" s="14">
         <v>6</v>
@@ -4744,7 +4802,7 @@
       <c r="V19" s="11"/>
     </row>
     <row r="20" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="99"/>
+      <c r="A20" s="93"/>
       <c r="B20" s="76" t="s">
         <v>47</v>
       </c>
@@ -4761,7 +4819,7 @@
         <v>33</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H20" s="14">
         <v>1</v>
@@ -4786,11 +4844,11 @@
       <c r="V20" s="11"/>
     </row>
     <row r="21" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="100" t="s">
-        <v>115</v>
+      <c r="A21" s="94" t="s">
+        <v>112</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C21" s="14">
         <v>3052210</v>
@@ -4802,7 +4860,7 @@
         <v>3000</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>0</v>
@@ -4830,9 +4888,9 @@
       <c r="V21" s="11"/>
     </row>
     <row r="22" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="102"/>
+      <c r="A22" s="96"/>
       <c r="B22" s="76" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C22" s="14">
         <v>3052211</v>
@@ -4847,7 +4905,7 @@
         <v>33</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H22" s="14">
         <v>2</v>
@@ -4872,9 +4930,9 @@
       <c r="V22" s="11"/>
     </row>
     <row r="23" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="102"/>
+      <c r="A23" s="96"/>
       <c r="B23" s="76" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C23" s="14">
         <v>3052212</v>
@@ -4889,7 +4947,7 @@
         <v>33</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H23" s="14">
         <v>6</v>
@@ -4914,9 +4972,9 @@
       <c r="V23" s="11"/>
     </row>
     <row r="24" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="102"/>
+      <c r="A24" s="96"/>
       <c r="B24" s="76" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C24" s="14">
         <v>3052213</v>
@@ -4931,7 +4989,7 @@
         <v>33</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H24" s="14">
         <v>6</v>
@@ -4956,7 +5014,7 @@
       <c r="V24" s="11"/>
     </row>
     <row r="25" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="101"/>
+      <c r="A25" s="95"/>
       <c r="B25" s="76" t="s">
         <v>47</v>
       </c>
@@ -4973,7 +5031,7 @@
         <v>33</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H25" s="14">
         <v>1</v>
@@ -4998,11 +5056,11 @@
       <c r="V25" s="11"/>
     </row>
     <row r="26" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="99" t="s">
-        <v>94</v>
+      <c r="A26" s="93" t="s">
+        <v>91</v>
       </c>
       <c r="B26" s="76" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C26" s="14">
         <v>3052300</v>
@@ -5014,7 +5072,7 @@
         <v>3000</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>0</v>
@@ -5042,9 +5100,9 @@
       <c r="V26" s="11"/>
     </row>
     <row r="27" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="99"/>
+      <c r="A27" s="93"/>
       <c r="B27" s="76" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C27" s="14">
         <v>3052301</v>
@@ -5059,7 +5117,7 @@
         <v>33</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H27" s="14">
         <v>4</v>
@@ -5084,7 +5142,7 @@
       <c r="V27" s="11"/>
     </row>
     <row r="28" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="99"/>
+      <c r="A28" s="93"/>
       <c r="B28" s="76" t="s">
         <v>47</v>
       </c>
@@ -5101,7 +5159,7 @@
         <v>33</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H28" s="14">
         <v>1</v>
@@ -5126,8 +5184,8 @@
       <c r="V28" s="11"/>
     </row>
     <row r="29" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="99" t="s">
-        <v>92</v>
+      <c r="A29" s="93" t="s">
+        <v>89</v>
       </c>
       <c r="B29" s="76" t="s">
         <v>39</v>
@@ -5142,7 +5200,7 @@
         <v>3001</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>0</v>
@@ -5170,9 +5228,9 @@
       <c r="V29" s="11"/>
     </row>
     <row r="30" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="99"/>
+      <c r="A30" s="93"/>
       <c r="B30" s="76" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C30" s="14">
         <v>3052401</v>
@@ -5184,7 +5242,7 @@
         <v>3004</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>0</v>
@@ -5212,9 +5270,9 @@
       <c r="V30" s="11"/>
     </row>
     <row r="31" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="99"/>
+      <c r="A31" s="93"/>
       <c r="B31" s="76" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C31" s="14">
         <v>3052402</v>
@@ -5229,7 +5287,7 @@
         <v>33</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H31" s="14">
         <v>2</v>
@@ -5254,11 +5312,11 @@
       <c r="V31" s="11"/>
     </row>
     <row r="32" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="99" t="s">
+      <c r="A32" s="93" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="76" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C32" s="14">
         <v>3052500</v>
@@ -5273,7 +5331,7 @@
         <v>33</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H32" s="14">
         <v>6</v>
@@ -5298,9 +5356,9 @@
       <c r="V32" s="11"/>
     </row>
     <row r="33" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="99"/>
+      <c r="A33" s="93"/>
       <c r="B33" s="76" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C33" s="14">
         <v>3052501</v>
@@ -5315,7 +5373,7 @@
         <v>33</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H33" s="14">
         <v>6</v>
@@ -5340,11 +5398,11 @@
       <c r="V33" s="11"/>
     </row>
     <row r="34" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="99" t="s">
-        <v>118</v>
+      <c r="A34" s="93" t="s">
+        <v>115</v>
       </c>
       <c r="B34" s="76" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C34" s="14">
         <v>3052510</v>
@@ -5359,7 +5417,7 @@
         <v>33</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H34" s="14">
         <v>6</v>
@@ -5384,9 +5442,9 @@
       <c r="V34" s="11"/>
     </row>
     <row r="35" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="99"/>
+      <c r="A35" s="93"/>
       <c r="B35" s="76" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C35" s="14">
         <v>3052511</v>
@@ -5401,7 +5459,7 @@
         <v>33</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H35" s="14">
         <v>6</v>
@@ -5426,7 +5484,7 @@
       <c r="V35" s="11"/>
     </row>
     <row r="36" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="99" t="s">
+      <c r="A36" s="93" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="76" t="s">
@@ -5442,7 +5500,7 @@
         <v>3001</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>0</v>
@@ -5470,7 +5528,7 @@
       <c r="V36" s="11"/>
     </row>
     <row r="37" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="99"/>
+      <c r="A37" s="93"/>
       <c r="B37" s="76" t="s">
         <v>32</v>
       </c>
@@ -5484,7 +5542,7 @@
         <v>3002</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>0</v>
@@ -5512,7 +5570,7 @@
       <c r="V37" s="11"/>
     </row>
     <row r="38" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="99"/>
+      <c r="A38" s="93"/>
       <c r="B38" s="76" t="s">
         <v>40</v>
       </c>
@@ -5554,9 +5612,9 @@
       <c r="V38" s="11"/>
     </row>
     <row r="39" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="99"/>
+      <c r="A39" s="93"/>
       <c r="B39" s="76" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C39" s="14">
         <v>3052603</v>
@@ -5571,7 +5629,7 @@
         <v>33</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H39" s="14">
         <v>3</v>
@@ -5596,9 +5654,9 @@
       <c r="V39" s="11"/>
     </row>
     <row r="40" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="99"/>
+      <c r="A40" s="93"/>
       <c r="B40" s="76" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C40" s="14">
         <v>3052604</v>
@@ -5613,7 +5671,7 @@
         <v>33</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H40" s="14">
         <v>4</v>
@@ -5638,9 +5696,9 @@
       <c r="V40" s="11"/>
     </row>
     <row r="41" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="99"/>
+      <c r="A41" s="93"/>
       <c r="B41" s="76" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C41" s="14">
         <v>3052605</v>
@@ -5655,7 +5713,7 @@
         <v>33</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H41" s="14">
         <v>4</v>
@@ -5680,9 +5738,9 @@
       <c r="V41" s="11"/>
     </row>
     <row r="42" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="99"/>
+      <c r="A42" s="93"/>
       <c r="B42" s="76" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C42" s="14">
         <v>3052606</v>
@@ -5697,7 +5755,7 @@
         <v>33</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H42" s="14">
         <v>4</v>
@@ -5722,7 +5780,7 @@
       <c r="V42" s="11"/>
     </row>
     <row r="43" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="99"/>
+      <c r="A43" s="93"/>
       <c r="B43" s="76" t="s">
         <v>46</v>
       </c>
@@ -5739,7 +5797,7 @@
         <v>33</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="14">
         <v>1</v>
@@ -5764,7 +5822,7 @@
       <c r="V43" s="11"/>
     </row>
     <row r="44" spans="1:22" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="99"/>
+      <c r="A44" s="93"/>
       <c r="B44" s="76" t="s">
         <v>47</v>
       </c>
@@ -5781,7 +5839,7 @@
         <v>33</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H44" s="14">
         <v>1</v>
@@ -5806,7 +5864,7 @@
       <c r="V44" s="11"/>
     </row>
     <row r="45" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="99" t="s">
+      <c r="A45" s="93" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="76" t="s">
@@ -5822,7 +5880,7 @@
         <v>3001</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>0</v>
@@ -5850,7 +5908,7 @@
       <c r="V45" s="11"/>
     </row>
     <row r="46" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="99"/>
+      <c r="A46" s="93"/>
       <c r="B46" s="76" t="s">
         <v>32</v>
       </c>
@@ -5864,7 +5922,7 @@
         <v>3002</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>0</v>
@@ -5892,9 +5950,9 @@
       <c r="V46" s="10"/>
     </row>
     <row r="47" spans="1:22" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="99"/>
+      <c r="A47" s="93"/>
       <c r="B47" s="76" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C47" s="14">
         <v>3052702</v>
@@ -5909,7 +5967,7 @@
         <v>33</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H47" s="14">
         <v>6</v>
@@ -5934,7 +5992,7 @@
       <c r="V47" s="11"/>
     </row>
     <row r="48" spans="1:22" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="99"/>
+      <c r="A48" s="93"/>
       <c r="B48" s="76" t="s">
         <v>56</v>
       </c>
@@ -5951,7 +6009,7 @@
         <v>33</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H48" s="14">
         <v>1</v>
@@ -5976,9 +6034,9 @@
       <c r="V48" s="11"/>
     </row>
     <row r="49" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="99"/>
+      <c r="A49" s="93"/>
       <c r="B49" s="76" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C49" s="14">
         <v>3052704</v>
@@ -5993,7 +6051,7 @@
         <v>33</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H49" s="14">
         <v>6</v>
@@ -6018,9 +6076,9 @@
       <c r="V49" s="11"/>
     </row>
     <row r="50" spans="1:22" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="99"/>
+      <c r="A50" s="93"/>
       <c r="B50" s="76" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C50" s="14">
         <v>3052705</v>
@@ -6035,7 +6093,7 @@
         <v>33</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H50" s="14">
         <v>6</v>
@@ -6060,9 +6118,9 @@
       <c r="V50" s="11"/>
     </row>
     <row r="51" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="99"/>
+      <c r="A51" s="93"/>
       <c r="B51" s="76" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C51" s="14">
         <v>3052706</v>
@@ -6077,7 +6135,7 @@
         <v>33</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H51" s="14">
         <v>6</v>
@@ -6091,7 +6149,7 @@
       <c r="K51" s="18"/>
     </row>
     <row r="52" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="99"/>
+      <c r="A52" s="93"/>
       <c r="B52" s="76" t="s">
         <v>46</v>
       </c>
@@ -6108,7 +6166,7 @@
         <v>33</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H52" s="14">
         <v>1</v>
@@ -6122,7 +6180,7 @@
       <c r="K52" s="18"/>
     </row>
     <row r="53" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="99"/>
+      <c r="A53" s="93"/>
       <c r="B53" s="76" t="s">
         <v>47</v>
       </c>
@@ -6139,7 +6197,7 @@
         <v>33</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H53" s="14">
         <v>1</v>
@@ -6153,11 +6211,11 @@
       <c r="K53" s="18"/>
     </row>
     <row r="54" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="95" t="s">
-        <v>90</v>
+      <c r="A54" s="99" t="s">
+        <v>87</v>
       </c>
       <c r="B54" s="77" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C54" s="14">
         <v>3052800</v>
@@ -6169,7 +6227,7 @@
         <v>3000</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>0</v>
@@ -6186,9 +6244,9 @@
       <c r="K54" s="18"/>
     </row>
     <row r="55" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="96"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="77" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C55" s="14">
         <v>3052801</v>
@@ -6203,7 +6261,7 @@
         <v>33</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H55" s="14">
         <v>4</v>
@@ -6213,9 +6271,9 @@
       <c r="K55" s="18"/>
     </row>
     <row r="56" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="96"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="77" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C56" s="14">
         <v>3052802</v>
@@ -6230,7 +6288,7 @@
         <v>33</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H56" s="14">
         <v>4</v>
@@ -6240,9 +6298,9 @@
       <c r="K56" s="18"/>
     </row>
     <row r="57" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="96"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="77" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C57" s="14">
         <v>3052803</v>
@@ -6257,7 +6315,7 @@
         <v>33</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H57" s="14">
         <v>4</v>
@@ -6267,7 +6325,7 @@
       <c r="K57" s="18"/>
     </row>
     <row r="58" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="97"/>
+      <c r="A58" s="101"/>
       <c r="B58" s="77" t="s">
         <v>47</v>
       </c>
@@ -6284,7 +6342,7 @@
         <v>33</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H58" s="14">
         <v>1</v>
@@ -6298,11 +6356,11 @@
       <c r="K58" s="18"/>
     </row>
     <row r="59" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="93" t="s">
-        <v>91</v>
+      <c r="A59" s="97" t="s">
+        <v>88</v>
       </c>
       <c r="B59" s="77" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C59" s="14">
         <v>3052900</v>
@@ -6314,7 +6372,7 @@
         <v>3000</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G59" s="14" t="s">
         <v>0</v>
@@ -6331,9 +6389,9 @@
       <c r="K59" s="18"/>
     </row>
     <row r="60" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="98"/>
+      <c r="A60" s="102"/>
       <c r="B60" s="77" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C60" s="14">
         <v>3052901</v>
@@ -6348,7 +6406,7 @@
         <v>33</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H60" s="14">
         <v>2</v>
@@ -6362,7 +6420,7 @@
       <c r="K60" s="18"/>
     </row>
     <row r="61" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="94"/>
+      <c r="A61" s="98"/>
       <c r="B61" s="77" t="s">
         <v>47</v>
       </c>
@@ -6379,7 +6437,7 @@
         <v>33</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H61" s="14">
         <v>1</v>
@@ -6393,8 +6451,8 @@
       <c r="K61" s="18"/>
     </row>
     <row r="62" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="93" t="s">
-        <v>95</v>
+      <c r="A62" s="97" t="s">
+        <v>92</v>
       </c>
       <c r="B62" s="77" t="s">
         <v>39</v>
@@ -6409,7 +6467,7 @@
         <v>3001</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G62" s="14" t="s">
         <v>0</v>
@@ -6426,7 +6484,7 @@
       <c r="K62" s="18"/>
     </row>
     <row r="63" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="98"/>
+      <c r="A63" s="102"/>
       <c r="B63" s="77" t="s">
         <v>32</v>
       </c>
@@ -6440,7 +6498,7 @@
         <v>3002</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G63" s="14" t="s">
         <v>0</v>
@@ -6457,9 +6515,9 @@
       <c r="K63" s="18"/>
     </row>
     <row r="64" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="98"/>
+      <c r="A64" s="102"/>
       <c r="B64" s="77" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C64" s="14">
         <v>3053002</v>
@@ -6474,7 +6532,7 @@
         <v>33</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H64" s="14">
         <v>4</v>
@@ -6484,7 +6542,7 @@
       <c r="K64" s="18"/>
     </row>
     <row r="65" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="94"/>
+      <c r="A65" s="98"/>
       <c r="B65" s="77" t="s">
         <v>47</v>
       </c>
@@ -6501,7 +6559,7 @@
         <v>33</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H65" s="14">
         <v>1</v>
@@ -6515,8 +6573,8 @@
       <c r="K65" s="18"/>
     </row>
     <row r="66" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="93" t="s">
-        <v>96</v>
+      <c r="A66" s="97" t="s">
+        <v>93</v>
       </c>
       <c r="B66" s="77" t="s">
         <v>39</v>
@@ -6531,7 +6589,7 @@
         <v>3001</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G66" s="14" t="s">
         <v>0</v>
@@ -6548,7 +6606,7 @@
       <c r="K66" s="18"/>
     </row>
     <row r="67" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="98"/>
+      <c r="A67" s="102"/>
       <c r="B67" s="77" t="s">
         <v>32</v>
       </c>
@@ -6562,7 +6620,7 @@
         <v>3002</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G67" s="14" t="s">
         <v>0</v>
@@ -6579,9 +6637,9 @@
       <c r="K67" s="18"/>
     </row>
     <row r="68" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="98"/>
+      <c r="A68" s="102"/>
       <c r="B68" s="77" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C68" s="14">
         <v>3053102</v>
@@ -6596,7 +6654,7 @@
         <v>33</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H68" s="14">
         <v>6</v>
@@ -6606,9 +6664,9 @@
       <c r="K68" s="18"/>
     </row>
     <row r="69" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="98"/>
+      <c r="A69" s="102"/>
       <c r="B69" s="77" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C69" s="14">
         <v>3053103</v>
@@ -6623,7 +6681,7 @@
         <v>33</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H69" s="14">
         <v>6</v>
@@ -6633,9 +6691,9 @@
       <c r="K69" s="18"/>
     </row>
     <row r="70" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="98"/>
+      <c r="A70" s="102"/>
       <c r="B70" s="77" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C70" s="14">
         <v>3053104</v>
@@ -6650,7 +6708,7 @@
         <v>33</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H70" s="14">
         <v>2</v>
@@ -6660,7 +6718,7 @@
       <c r="K70" s="18"/>
     </row>
     <row r="71" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="94"/>
+      <c r="A71" s="98"/>
       <c r="B71" s="77" t="s">
         <v>47</v>
       </c>
@@ -6677,7 +6735,7 @@
         <v>33</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H71" s="14">
         <v>1</v>
@@ -6691,8 +6749,8 @@
       <c r="K71" s="18"/>
     </row>
     <row r="72" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="93" t="s">
-        <v>97</v>
+      <c r="A72" s="97" t="s">
+        <v>94</v>
       </c>
       <c r="B72" s="77" t="s">
         <v>39</v>
@@ -6707,7 +6765,7 @@
         <v>3001</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G72" s="14" t="s">
         <v>0</v>
@@ -6724,9 +6782,9 @@
       <c r="K72" s="18"/>
     </row>
     <row r="73" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="98"/>
+      <c r="A73" s="102"/>
       <c r="B73" s="77" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C73" s="14">
         <v>3053201</v>
@@ -6741,7 +6799,7 @@
         <v>33</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H73" s="14">
         <v>2</v>
@@ -6751,7 +6809,7 @@
       <c r="K73" s="18"/>
     </row>
     <row r="74" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="94"/>
+      <c r="A74" s="98"/>
       <c r="B74" s="77" t="s">
         <v>47</v>
       </c>
@@ -6768,7 +6826,7 @@
         <v>33</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H74" s="14">
         <v>1</v>
@@ -6782,8 +6840,8 @@
       <c r="K74" s="18"/>
     </row>
     <row r="75" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="93" t="s">
-        <v>98</v>
+      <c r="A75" s="97" t="s">
+        <v>95</v>
       </c>
       <c r="B75" s="77" t="s">
         <v>39</v>
@@ -6798,7 +6856,7 @@
         <v>3001</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G75" s="14" t="s">
         <v>0</v>
@@ -6815,9 +6873,9 @@
       <c r="K75" s="18"/>
     </row>
     <row r="76" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="94"/>
+      <c r="A76" s="98"/>
       <c r="B76" s="77" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C76" s="14">
         <v>3053301</v>
@@ -6947,6 +7005,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="A72:A74"/>
     <mergeCell ref="A36:A44"/>
     <mergeCell ref="A45:A53"/>
     <mergeCell ref="A2:A3"/>
@@ -6960,12 +7024,6 @@
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A16:A20"/>
     <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="A72:A74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
